--- a/medicine/Enfance/Lotus_Baby/Lotus_Baby.xlsx
+++ b/medicine/Enfance/Lotus_Baby/Lotus_Baby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Lotus Baby est une marque commerciale de Essity[1] (division de SCA).
-Elle propose des produits destinés aux nourrissons et aux enfants qui accèdent à la propreté : couches-culottes, carrés de coton, lingettes[2].
+Lotus Baby est une marque commerciale de Essity (division de SCA).
+Elle propose des produits destinés aux nourrissons et aux enfants qui accèdent à la propreté : couches-culottes, carrés de coton, lingettes.
 </t>
         </is>
       </c>
@@ -513,17 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'origine suédoise, SCA est leader sur le marché des couches-culottes en Scandinavie avec sa marque Libero.
-1971 - 1999 : Peaudouce
-SCA a été présente entre 1988 et 1999 sur le marché des couches-culottes en France avec le rachat de Peaudouce à  Bernard Arnault[3] puis sa revente à Kimberly Clark en 1996[4].
-Peaudouce disparaît en 1999[5] du paysage européen[6] mais continue à être actuellement[7] vendue dans d'autres pays comme la Tunisie.
-2017 : retour de SCA sur le marché français
-La marque Lotus Baby est créée en 2017.
-Le retour en France de SCA sur le marché des couches-culottes est opéré en 2017[8]. Plusieurs facteurs peuvent expliquer ce retour :
-Le marché est mature et porteur : la France occupe la deuxième place européenne au classement du taux de natalité,
-Mis à part Pampers, aucune marque nationale n'est disponible sur le marché de la couche-culotte : Huggies via Pull-Ups s'est concentré sur les culottes d'apprentissage pour les nourrissons de plus de 8 kg.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine suédoise, SCA est leader sur le marché des couches-culottes en Scandinavie avec sa marque Libero.
+</t>
         </is>
       </c>
     </row>
@@ -548,12 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Informations financières</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La marque annonce un chiffre d'affaires de 8,2 Millions d'Euros réalisé lors de son lancement (janvier à juin 2017)[9].
+          <t>1971 - 1999 : Peaudouce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SCA a été présente entre 1988 et 1999 sur le marché des couches-culottes en France avec le rachat de Peaudouce à  Bernard Arnault puis sa revente à Kimberly Clark en 1996.
+Peaudouce disparaît en 1999 du paysage européen mais continue à être actuellement vendue dans d'autres pays comme la Tunisie.
 </t>
         </is>
       </c>
@@ -579,10 +593,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2017 : retour de SCA sur le marché français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La marque Lotus Baby est créée en 2017.
+Le retour en France de SCA sur le marché des couches-culottes est opéré en 2017. Plusieurs facteurs peuvent expliquer ce retour :
+Le marché est mature et porteur : la France occupe la deuxième place européenne au classement du taux de natalité,
+Mis à part Pampers, aucune marque nationale n'est disponible sur le marché de la couche-culotte : Huggies via Pull-Ups s'est concentré sur les culottes d'apprentissage pour les nourrissons de plus de 8 kg.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lotus_Baby</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotus_Baby</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Informations financières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque annonce un chiffre d'affaires de 8,2 Millions d'Euros réalisé lors de son lancement (janvier à juin 2017).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lotus_Baby</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lotus_Baby</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Gamme de produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits proposés en France métropolitaine sont des couches et culottes d'apprentissage jetables ainsi que des carrés de coton et lingettes.
 </t>
